--- a/data/docs/Anexo-5.xlsx
+++ b/data/docs/Anexo-5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Desktop\NUEVO PROGRAMA PNCBN\Evaluacion y seleccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\manoly\MatCom\pncti\data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE917932-FCCE-4701-8538-46F3C4180D71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3041A22C-3F5D-4DDA-936C-7EBE5E27B801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D4A827E2-8714-49CF-B4A6-2A208CB3C175}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -484,17 +484,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -537,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -630,7 +626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -918,7 +914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -932,7 +928,7 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
@@ -940,129 +936,129 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="19">
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="17">
         <f>'Criterio 1'!D21+'Criterio 2'!D21+'Criterio 3'!D22+'Criterio 4'!D19</f>
         <v>360</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="4">
         <f>F9/4</f>
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="39" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="42"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="43"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1093,7 +1089,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="50.109375" customWidth="1"/>
@@ -1101,53 +1097,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="30"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1238,7 +1226,7 @@
       <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <f>SUM(D11:D20)/10</f>
         <v>90</v>
       </c>
@@ -1265,57 +1253,49 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="30"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
@@ -1369,7 +1349,7 @@
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="46">
         <v>90</v>
       </c>
     </row>
@@ -1377,31 +1357,31 @@
       <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <f>SUM(D11:D20)/6</f>
         <v>90</v>
       </c>
@@ -1428,57 +1408,49 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="30"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
@@ -1584,7 +1556,7 @@
       <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <f>SUM(D11:D18,D20:D21)/10</f>
         <v>90</v>
       </c>
@@ -1610,7 +1582,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="61.6640625" customWidth="1"/>
@@ -1618,56 +1590,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="30"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="50"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1736,10 +1700,10 @@
       </c>
     </row>
     <row r="19" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <f>SUM(D11:D18)/8</f>
         <v>90</v>
       </c>
